--- a/IO_Pin.xlsx
+++ b/IO_Pin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>NRF24</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,18 +38,6 @@
     <t>NRF_IRQ</t>
   </si>
   <si>
-    <t>PG8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PB2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +105,22 @@
   </si>
   <si>
     <t>PA0-PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -495,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -509,10 +513,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -520,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -528,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -536,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -544,49 +551,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
